--- a/output/subreddit_results.xlsx
+++ b/output/subreddit_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/output/subreddit_results.xlsx
+++ b/output/subreddit_results.xlsx
@@ -1,13 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Subreddits" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="socialism" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Libertarian" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="The_Donald" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="politics" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,16 +19,589 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Top_Posters</t>
+  </si>
+  <si>
+    <t>Overall_Subjectivity</t>
+  </si>
+  <si>
+    <t>Overall_Polarity</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ideology</t>
+  </si>
+  <si>
+    <t>Average_Subjectivity</t>
+  </si>
+  <si>
+    <t>Average_Polarity</t>
+  </si>
+  <si>
+    <t>136059</t>
+  </si>
+  <si>
+    <t>[Arakhion, gonzalodyke, WhipItGouda, zombiesingularity, LeMortSaisitLeVif]</t>
+  </si>
+  <si>
+    <t>0.457290143965</t>
+  </si>
+  <si>
+    <t>0.063130020093</t>
+  </si>
+  <si>
+    <t>r/socialism</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>0.404873313702</t>
+  </si>
+  <si>
+    <t>0.0750110195</t>
+  </si>
+  <si>
+    <t>219880</t>
+  </si>
+  <si>
+    <t>[JerkwaterJeff666, reaaaaally, doyouwantapizzaroll, rubygeek, LRonPaul2012]</t>
+  </si>
+  <si>
+    <t>0.495720900912</t>
+  </si>
+  <si>
+    <t>0.0899327395928</t>
+  </si>
+  <si>
+    <t>r/Libertarian</t>
+  </si>
+  <si>
+    <t>Center Right</t>
+  </si>
+  <si>
+    <t>0.463840783215</t>
+  </si>
+  <si>
+    <t>0.0707544238901</t>
+  </si>
+  <si>
+    <t>605900</t>
+  </si>
+  <si>
+    <t>[Mothra67, johnsmithshitpost, blue_suede_shoes_, yourturtlesaremine, CNNWillBlackmailYou]</t>
+  </si>
+  <si>
+    <t>0.515684210526</t>
+  </si>
+  <si>
+    <t>0.117330827068</t>
+  </si>
+  <si>
+    <t>r/The_Donald</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>0.431540322349</t>
+  </si>
+  <si>
+    <t>0.113761070853</t>
+  </si>
+  <si>
+    <t>3805322</t>
+  </si>
+  <si>
+    <t>[AutoModerator, j_la, shittdsays, Fynn_the_Finger, jerryyork]</t>
+  </si>
+  <si>
+    <t>0.503276546251</t>
+  </si>
+  <si>
+    <t>0.0120405719759</t>
+  </si>
+  <si>
+    <t>r/politics</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>0.462191238962</t>
+  </si>
+  <si>
+    <t>-0.0100171335472</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Down_Votes</t>
+  </si>
+  <si>
+    <t>Up_Votes</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Yup</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/11knxsgzcuqz.jpg</t>
+  </si>
+  <si>
+    <t>TheRandomSnake</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>23889</t>
+  </si>
+  <si>
+    <t>/r/socialism/comments/75ar86/yup/</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>1507570967.0</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>For anyone wondering who to thank for defeating an open pedophile</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/DQ5Zi23UMAAZYWr.jpg</t>
+  </si>
+  <si>
+    <t>Jackissocool</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>22300</t>
+  </si>
+  <si>
+    <t>/r/socialism/comments/7jiefb/for_anyone_wondering_who_to_thank_for_defeating/</t>
+  </si>
+  <si>
+    <t>1513161413.0</t>
+  </si>
+  <si>
+    <t>70% of Millennials Believe U.S. Student Loan Debt Poses Bigger Threat to U.S. Than North Korea</t>
+  </si>
+  <si>
+    <t>https://lendedu.com/news/millennials-believe-u-s-student-loan-debt-bigger-threat-than-north-korea/</t>
+  </si>
+  <si>
+    <t>free_the_llamas</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>21836</t>
+  </si>
+  <si>
+    <t>/r/socialism/comments/6lkzgn/70_of_millennials_believe_us_student_loan_debt/</t>
+  </si>
+  <si>
+    <t>1499338337.0</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Who actually benefits from a raise in the minimum wage</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/jmcju96zg67z.jpg</t>
+  </si>
+  <si>
+    <t>badooga1</t>
+  </si>
+  <si>
+    <t>1397</t>
+  </si>
+  <si>
+    <t>18953</t>
+  </si>
+  <si>
+    <t>/r/socialism/comments/6kt4ma/who_actually_benefits_from_a_raise_in_the_minimum/</t>
+  </si>
+  <si>
+    <t>1499000631.0</t>
+  </si>
+  <si>
+    <t>BREAKING: Vehicle plows into a group of counter-protesters at a white nationalist rally in Virginia; injuries unknown.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AP/status/896429444939878400</t>
+  </si>
+  <si>
+    <t>Moslamach</t>
+  </si>
+  <si>
+    <t>1359</t>
+  </si>
+  <si>
+    <t>16509</t>
+  </si>
+  <si>
+    <t>/r/socialism/comments/6t9w43/breaking_vehicle_plows_into_a_group_of/</t>
+  </si>
+  <si>
+    <t>1502560746.0</t>
+  </si>
+  <si>
+    <t>Trump imposes 30% tarriff on solar panel imports. Now all Americans are going to have to pay higher prices for renewable energy to protect an uncompetitive US industry. Special interests at their worst</t>
+  </si>
+  <si>
+    <t>http://thehill.com/policy/energy-environment/370171-trump-imposes-30-tariffs-on-solar-panel-imports</t>
+  </si>
+  <si>
+    <t>Dracula_in_Auschwitz</t>
+  </si>
+  <si>
+    <t>3064</t>
+  </si>
+  <si>
+    <t>29193</t>
+  </si>
+  <si>
+    <t>/r/Libertarian/comments/7s9kt6/trump_imposes_30_tarriff_on_solar_panel_imports/</t>
+  </si>
+  <si>
+    <t>1516659808.0</t>
+  </si>
+  <si>
+    <t>Congress explained.</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/szy0t25e406z.jpg</t>
+  </si>
+  <si>
+    <t>an1h</t>
+  </si>
+  <si>
+    <t>2320</t>
+  </si>
+  <si>
+    <t>26428</t>
+  </si>
+  <si>
+    <t>/r/Libertarian/comments/6jlgnq/congress_explained/</t>
+  </si>
+  <si>
+    <t>1498487910.0</t>
+  </si>
+  <si>
+    <t>Welcome to r/Libertarian</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/pyuabr3ktld01.jpg</t>
+  </si>
+  <si>
+    <t>tehForce</t>
+  </si>
+  <si>
+    <t>3373</t>
+  </si>
+  <si>
+    <t>26390</t>
+  </si>
+  <si>
+    <t>/r/Libertarian/comments/7uirag/welcome_to_rlibertarian/</t>
+  </si>
+  <si>
+    <t>1517492120.0</t>
+  </si>
+  <si>
+    <t>Republicans irl</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/bs2ctv0uvk8z.jpg</t>
+  </si>
+  <si>
+    <t>Bradley_Haran</t>
+  </si>
+  <si>
+    <t>4631</t>
+  </si>
+  <si>
+    <t>24801</t>
+  </si>
+  <si>
+    <t>/r/Libertarian/comments/6m7qye/republicans_irl/</t>
+  </si>
+  <si>
+    <t>1499611006.0</t>
+  </si>
+  <si>
+    <t>Sen. Rand Paul on the new senate spending bill: "If you were against President Obama's deficits, and now you're for the Republican deficits, isn't that the very definition of hypocrisy?"</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ABCPolitics/status/961738413928951809?&amp;=7</t>
+  </si>
+  <si>
+    <t>Bhartrhari</t>
+  </si>
+  <si>
+    <t>2685</t>
+  </si>
+  <si>
+    <t>23848</t>
+  </si>
+  <si>
+    <t>/r/Libertarian/comments/7wa1ci/sen_rand_paul_on_the_new_senate_spending_bill_if/</t>
+  </si>
+  <si>
+    <t>1518140738.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /r/The_Donald is being censored from /r/all. If Reddit wants neutrality for the internet, why doesn't it support neutrality on its own platform? </t>
+  </si>
+  <si>
+    <t>https://i.redd.it/hioead3zi99z.png</t>
+  </si>
+  <si>
+    <t>wizardofthefuture</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>23193</t>
+  </si>
+  <si>
+    <t>/r/The_Donald/comments/6mygkg/rthe_donald_is_being_censored_from_rall_if_reddit/</t>
+  </si>
+  <si>
+    <t>1499909383.0</t>
+  </si>
+  <si>
+    <t>Fuck YouTube. YouTube is deleting and censoring all videos that show ANTIFA committing violence</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/98y23z9f7iiz.jpg</t>
+  </si>
+  <si>
+    <t>CuchIsLife</t>
+  </si>
+  <si>
+    <t>933</t>
+  </si>
+  <si>
+    <t>22973</t>
+  </si>
+  <si>
+    <t>/r/The_Donald/comments/6wkfg4/fuck_youtube_youtube_is_deleting_and_censoring/</t>
+  </si>
+  <si>
+    <t>1503937030.0</t>
+  </si>
+  <si>
+    <t>A year ago, 49 people died at Pulse nightclub due to radical Islamic terrorism. Today, The_Donald remembers.</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/9cknt7sij83z.jpg</t>
+  </si>
+  <si>
+    <t>Ein326</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>22557</t>
+  </si>
+  <si>
+    <t>/r/The_Donald/comments/6gt2zv/a_year_ago_49_people_died_at_pulse_nightclub_due/</t>
+  </si>
+  <si>
+    <t>1497282891.0</t>
+  </si>
+  <si>
+    <t>If you voted for a woman that was under multiple investigations by the FBI, would you downvote this picture of somebody who has never been under investigation by the FBI?</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/ubvz98agii2z.jpg</t>
+  </si>
+  <si>
+    <t>blache13</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>21954</t>
+  </si>
+  <si>
+    <t>/r/The_Donald/comments/6g4xsl/if_you_voted_for_a_woman_that_was_under_multiple/</t>
+  </si>
+  <si>
+    <t>1496967274.0</t>
+  </si>
+  <si>
+    <t>Trump revealed highly classified information to Russian foreign minister and ambassador.</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/world/national-security/trump-revealed-highly-classified-information-to-russian-foreign-minister-and-ambassador/2017/05/15/530c172a-3960-11e7-9e48-c4f199710b69_story.html</t>
+  </si>
+  <si>
+    <t>SQUEEEEEEEEEPS</t>
+  </si>
+  <si>
+    <t>21030</t>
+  </si>
+  <si>
+    <t>99357</t>
+  </si>
+  <si>
+    <t>/r/politics/comments/6bd42j/trump_revealed_highly_classified_information_to/</t>
+  </si>
+  <si>
+    <t>1494882202.0</t>
+  </si>
+  <si>
+    <t>Trump Ordered Mueller Fired, but Backed Off When White House Counsel Threatened to Quit</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2018/01/25/us/politics/trump-mueller-special-counsel-russia.html</t>
+  </si>
+  <si>
+    <t>71tsiser</t>
+  </si>
+  <si>
+    <t>14807</t>
+  </si>
+  <si>
+    <t>94868</t>
+  </si>
+  <si>
+    <t>/r/politics/comments/7t12e6/trump_ordered_mueller_fired_but_backed_off_when/</t>
+  </si>
+  <si>
+    <t>1516929371.0</t>
+  </si>
+  <si>
+    <t>A petition calling for FCC Chairman Ajit Pai to resign is racking up huge numbers</t>
+  </si>
+  <si>
+    <t>https://www.dailydot.com/layer8/we-the-petition-ajit-pai-net-neutrality/</t>
+  </si>
+  <si>
+    <t>mixplate</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>88215</t>
+  </si>
+  <si>
+    <t>/r/politics/comments/7fpqwf/a_petition_calling_for_fcc_chairman_ajit_pai_to/</t>
+  </si>
+  <si>
+    <t>1511729998.0</t>
+  </si>
+  <si>
+    <t>The FCCs craven net neutrality vote announcement makes no mention of the 22 million comments filed</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2017/11/21/the-fccs-craven-net-neutrality-vote-announcement-makes-no-mention-of-the-22-million-comments-filed/</t>
+  </si>
+  <si>
+    <t>wonderingsocrates</t>
+  </si>
+  <si>
+    <t>1734</t>
+  </si>
+  <si>
+    <t>87628</t>
+  </si>
+  <si>
+    <t>/r/politics/comments/7ekkmo/the_fccs_craven_net_neutrality_vote_announcement/</t>
+  </si>
+  <si>
+    <t>1511293536.0</t>
+  </si>
+  <si>
+    <t>The FCC has unveiled its plan to repeal its net neutrality rules</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/news/the-switch/wp/2017/11/21/the-fcc-has-unveiled-its-plan-to-rollback-its-net-neutrality-rules/?pushid=5a14525ab0a05c1d00000038&amp;tidr=notifi_push_breaking-news&amp;utm_term=.bc1288927ad0</t>
+  </si>
+  <si>
+    <t>sureillberightthere</t>
+  </si>
+  <si>
+    <t>5839</t>
+  </si>
+  <si>
+    <t>81971</t>
+  </si>
+  <si>
+    <t>/r/politics/comments/7eizpg/the_fcc_has_unveiled_its_plan_to_repeal_its_net/</t>
+  </si>
+  <si>
+    <t>1511281279.0</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -50,8 +627,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -349,14 +927,1026 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/output/subreddit_results.xlsx
+++ b/output/subreddit_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
   <si>
     <t>Users</t>
   </si>
@@ -36,6 +36,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Most_Frequent</t>
+  </si>
+  <si>
     <t>Ideology</t>
   </si>
   <si>
@@ -45,100 +48,112 @@
     <t>Average_Polarity</t>
   </si>
   <si>
-    <t>136059</t>
-  </si>
-  <si>
-    <t>[Arakhion, gonzalodyke, WhipItGouda, zombiesingularity, LeMortSaisitLeVif]</t>
-  </si>
-  <si>
-    <t>0.457290143965</t>
-  </si>
-  <si>
-    <t>0.063130020093</t>
+    <t>137158</t>
+  </si>
+  <si>
+    <t>[RedStarOne, Automated_Galaxy, GraemeTurnbull, raisahota, ajarndaniel]</t>
+  </si>
+  <si>
+    <t>0.603397932817</t>
+  </si>
+  <si>
+    <t>0.106310782241</t>
   </si>
   <si>
     <t>r/socialism</t>
   </si>
   <si>
+    <t>[('lol', 2), ('landlords', 1), (u'rational discussion', 1), ('youre', 1), (u'parasite class', 1)]</t>
+  </si>
+  <si>
     <t>Left</t>
   </si>
   <si>
-    <t>0.404873313702</t>
-  </si>
-  <si>
-    <t>0.0750110195</t>
-  </si>
-  <si>
-    <t>219880</t>
-  </si>
-  <si>
-    <t>[JerkwaterJeff666, reaaaaally, doyouwantapizzaroll, rubygeek, LRonPaul2012]</t>
-  </si>
-  <si>
-    <t>0.495720900912</t>
-  </si>
-  <si>
-    <t>0.0899327395928</t>
+    <t>0.491067251462</t>
+  </si>
+  <si>
+    <t>0.0808732057416</t>
+  </si>
+  <si>
+    <t>221698</t>
+  </si>
+  <si>
+    <t>[darthhayek, PutinPaysTrump, StewartTurkeylink, marx2k, nxtnguyen]</t>
+  </si>
+  <si>
+    <t>0.317508658009</t>
+  </si>
+  <si>
+    <t>-0.0289848484848</t>
   </si>
   <si>
     <t>r/Libertarian</t>
   </si>
   <si>
+    <t>[('libertarians', 2), (u'republican party', 2), ('harvard', 2), ('either', 2), (u'white people ...', 1)]</t>
+  </si>
+  <si>
     <t>Center Right</t>
   </si>
   <si>
-    <t>0.463840783215</t>
-  </si>
-  <si>
-    <t>0.0707544238901</t>
-  </si>
-  <si>
-    <t>605900</t>
-  </si>
-  <si>
-    <t>[Mothra67, johnsmithshitpost, blue_suede_shoes_, yourturtlesaremine, CNNWillBlackmailYou]</t>
-  </si>
-  <si>
-    <t>0.515684210526</t>
-  </si>
-  <si>
-    <t>0.117330827068</t>
+    <t>0.278481959142</t>
+  </si>
+  <si>
+    <t>0.00553957231041</t>
+  </si>
+  <si>
+    <t>609947</t>
+  </si>
+  <si>
+    <t>[friendandadvisor, IneligibleBachelor78, norinv, Constitution2A, DL535]</t>
+  </si>
+  <si>
+    <t>0.492824675325</t>
+  </si>
+  <si>
+    <t>-0.113306277056</t>
   </si>
   <si>
     <t>r/The_Donald</t>
   </si>
   <si>
+    <t>[('parkland', 2), ('uk', 2), ('never', 2), ('art', 1), ('deal', 1)]</t>
+  </si>
+  <si>
     <t>Right</t>
   </si>
   <si>
-    <t>0.431540322349</t>
-  </si>
-  <si>
-    <t>0.113761070853</t>
-  </si>
-  <si>
-    <t>3805322</t>
-  </si>
-  <si>
-    <t>[AutoModerator, j_la, shittdsays, Fynn_the_Finger, jerryyork]</t>
-  </si>
-  <si>
-    <t>0.503276546251</t>
-  </si>
-  <si>
-    <t>0.0120405719759</t>
+    <t>0.297893650794</t>
+  </si>
+  <si>
+    <t>-0.0441273809524</t>
+  </si>
+  <si>
+    <t>3828142</t>
+  </si>
+  <si>
+    <t>[AutoModerator, gamechanger55, Cindernubblebutt, yetanothercfcgrunt, haha_thatsucks]</t>
+  </si>
+  <si>
+    <t>0.567949427833</t>
+  </si>
+  <si>
+    <t>0.0955011074197</t>
   </si>
   <si>
     <t>r/politics</t>
   </si>
   <si>
+    <t>[('obama', 5), ('clinton', 1), (u'populist campaign', 1), (u'sea levels', 1), (u'warm gulf waters', 1)]</t>
+  </si>
+  <si>
     <t>Center</t>
   </si>
   <si>
-    <t>0.462191238962</t>
-  </si>
-  <si>
-    <t>-0.0100171335472</t>
+    <t>0.458901420217</t>
+  </si>
+  <si>
+    <t>0.016369047619</t>
   </si>
   <si>
     <t>Title</t>
@@ -189,7 +204,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>23889</t>
+    <t>23887</t>
   </si>
   <si>
     <t>/r/socialism/comments/75ar86/yup/</t>
@@ -213,10 +228,10 @@
     <t>Jackissocool</t>
   </si>
   <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>22300</t>
+    <t>989</t>
+  </si>
+  <si>
+    <t>22331</t>
   </si>
   <si>
     <t>/r/socialism/comments/7jiefb/for_anyone_wondering_who_to_thank_for_defeating/</t>
@@ -237,7 +252,7 @@
     <t>525</t>
   </si>
   <si>
-    <t>21836</t>
+    <t>21839</t>
   </si>
   <si>
     <t>/r/socialism/comments/6lkzgn/70_of_millennials_believe_us_student_loan_debt/</t>
@@ -261,7 +276,7 @@
     <t>1397</t>
   </si>
   <si>
-    <t>18953</t>
+    <t>18950</t>
   </si>
   <si>
     <t>/r/socialism/comments/6kt4ma/who_actually_benefits_from_a_raise_in_the_minimum/</t>
@@ -279,10 +294,10 @@
     <t>Moslamach</t>
   </si>
   <si>
-    <t>1359</t>
-  </si>
-  <si>
-    <t>16509</t>
+    <t>1349</t>
+  </si>
+  <si>
+    <t>16508</t>
   </si>
   <si>
     <t>/r/socialism/comments/6t9w43/breaking_vehicle_plows_into_a_group_of/</t>
@@ -300,10 +315,10 @@
     <t>Dracula_in_Auschwitz</t>
   </si>
   <si>
-    <t>3064</t>
-  </si>
-  <si>
-    <t>29193</t>
+    <t>3063</t>
+  </si>
+  <si>
+    <t>29242</t>
   </si>
   <si>
     <t>/r/Libertarian/comments/7s9kt6/trump_imposes_30_tarriff_on_solar_panel_imports/</t>
@@ -312,6 +327,27 @@
     <t>1516659808.0</t>
   </si>
   <si>
+    <t>Welcome to r/Libertarian</t>
+  </si>
+  <si>
+    <t>https://i.redd.it/pyuabr3ktld01.jpg</t>
+  </si>
+  <si>
+    <t>tehForce</t>
+  </si>
+  <si>
+    <t>3373</t>
+  </si>
+  <si>
+    <t>26473</t>
+  </si>
+  <si>
+    <t>/r/Libertarian/comments/7uirag/welcome_to_rlibertarian/</t>
+  </si>
+  <si>
+    <t>1517492120.0</t>
+  </si>
+  <si>
     <t>Congress explained.</t>
   </si>
   <si>
@@ -324,7 +360,7 @@
     <t>2320</t>
   </si>
   <si>
-    <t>26428</t>
+    <t>26420</t>
   </si>
   <si>
     <t>/r/Libertarian/comments/6jlgnq/congress_explained/</t>
@@ -333,27 +369,6 @@
     <t>1498487910.0</t>
   </si>
   <si>
-    <t>Welcome to r/Libertarian</t>
-  </si>
-  <si>
-    <t>https://i.redd.it/pyuabr3ktld01.jpg</t>
-  </si>
-  <si>
-    <t>tehForce</t>
-  </si>
-  <si>
-    <t>3373</t>
-  </si>
-  <si>
-    <t>26390</t>
-  </si>
-  <si>
-    <t>/r/Libertarian/comments/7uirag/welcome_to_rlibertarian/</t>
-  </si>
-  <si>
-    <t>1517492120.0</t>
-  </si>
-  <si>
     <t>Republicans irl</t>
   </si>
   <si>
@@ -363,10 +378,10 @@
     <t>Bradley_Haran</t>
   </si>
   <si>
-    <t>4631</t>
-  </si>
-  <si>
-    <t>24801</t>
+    <t>4630</t>
+  </si>
+  <si>
+    <t>24800</t>
   </si>
   <si>
     <t>/r/Libertarian/comments/6m7qye/republicans_irl/</t>
@@ -384,10 +399,10 @@
     <t>Bhartrhari</t>
   </si>
   <si>
-    <t>2685</t>
-  </si>
-  <si>
-    <t>23848</t>
+    <t>2681</t>
+  </si>
+  <si>
+    <t>23866</t>
   </si>
   <si>
     <t>/r/Libertarian/comments/7wa1ci/sen_rand_paul_on_the_new_senate_spending_bill_if/</t>
@@ -408,7 +423,7 @@
     <t>753</t>
   </si>
   <si>
-    <t>23193</t>
+    <t>23186</t>
   </si>
   <si>
     <t>/r/The_Donald/comments/6mygkg/rthe_donald_is_being_censored_from_rall_if_reddit/</t>
@@ -426,7 +441,7 @@
     <t>CuchIsLife</t>
   </si>
   <si>
-    <t>933</t>
+    <t>932</t>
   </si>
   <si>
     <t>22973</t>
@@ -471,7 +486,7 @@
     <t>401</t>
   </si>
   <si>
-    <t>21954</t>
+    <t>21958</t>
   </si>
   <si>
     <t>/r/The_Donald/comments/6g4xsl/if_you_voted_for_a_woman_that_was_under_multiple/</t>
@@ -480,27 +495,6 @@
     <t>1496967274.0</t>
   </si>
   <si>
-    <t>Trump revealed highly classified information to Russian foreign minister and ambassador.</t>
-  </si>
-  <si>
-    <t>https://www.washingtonpost.com/world/national-security/trump-revealed-highly-classified-information-to-russian-foreign-minister-and-ambassador/2017/05/15/530c172a-3960-11e7-9e48-c4f199710b69_story.html</t>
-  </si>
-  <si>
-    <t>SQUEEEEEEEEEPS</t>
-  </si>
-  <si>
-    <t>21030</t>
-  </si>
-  <si>
-    <t>99357</t>
-  </si>
-  <si>
-    <t>/r/politics/comments/6bd42j/trump_revealed_highly_classified_information_to/</t>
-  </si>
-  <si>
-    <t>1494882202.0</t>
-  </si>
-  <si>
     <t>Trump Ordered Mueller Fired, but Backed Off When White House Counsel Threatened to Quit</t>
   </si>
   <si>
@@ -510,10 +504,10 @@
     <t>71tsiser</t>
   </si>
   <si>
-    <t>14807</t>
-  </si>
-  <si>
-    <t>94868</t>
+    <t>14785</t>
+  </si>
+  <si>
+    <t>94906</t>
   </si>
   <si>
     <t>/r/politics/comments/7t12e6/trump_ordered_mueller_fired_but_backed_off_when/</t>
@@ -531,10 +525,10 @@
     <t>mixplate</t>
   </si>
   <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>88215</t>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>88266</t>
   </si>
   <si>
     <t>/r/politics/comments/7fpqwf/a_petition_calling_for_fcc_chairman_ajit_pai_to/</t>
@@ -555,7 +549,7 @@
     <t>1734</t>
   </si>
   <si>
-    <t>87628</t>
+    <t>87643</t>
   </si>
   <si>
     <t>/r/politics/comments/7ekkmo/the_fccs_craven_net_neutrality_vote_announcement/</t>
@@ -573,16 +567,37 @@
     <t>sureillberightthere</t>
   </si>
   <si>
-    <t>5839</t>
-  </si>
-  <si>
-    <t>81971</t>
+    <t>5838</t>
+  </si>
+  <si>
+    <t>81981</t>
   </si>
   <si>
     <t>/r/politics/comments/7eizpg/the_fcc_has_unveiled_its_plan_to_repeal_its_net/</t>
   </si>
   <si>
     <t>1511281279.0</t>
+  </si>
+  <si>
+    <t>Senate Passes Bill to Save Net Neutrality</t>
+  </si>
+  <si>
+    <t>https://www.popularmechanics.com/technology/infrastructure/a20717377/senate-net-neutrality-vote-2018/</t>
+  </si>
+  <si>
+    <t>zuppo</t>
+  </si>
+  <si>
+    <t>4257</t>
+  </si>
+  <si>
+    <t>78086</t>
+  </si>
+  <si>
+    <t>/r/politics/comments/8jxxn4/senate_passes_bill_to_save_net_neutrality/</t>
+  </si>
+  <si>
+    <t>1526500305.0</t>
   </si>
 </sst>
 </file>
@@ -927,7 +942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,7 +950,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,109 +975,124 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1086,212 +1116,212 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
         <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1315,212 +1345,212 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1544,177 +1574,177 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1738,212 +1768,212 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
